--- a/PartsA.xlsx
+++ b/PartsA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Number Required</t>
   </si>
@@ -561,7 +561,7 @@
   <dimension ref="A1:L930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,6 +987,9 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1032,13 +1035,30 @@
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">

--- a/PartsA.xlsx
+++ b/PartsA.xlsx
@@ -561,7 +561,7 @@
   <dimension ref="A1:L930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>96</v>
       </c>
       <c r="G3" s="7"/>
